--- a/Data/Data_MD.xlsx
+++ b/Data/Data_MD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madhu/Documents/2025 CRSS 8030/2025dsa_finalproject_group14/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10FC348-8D3A-354A-9308-354EBADC7C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62238DE-CFA0-7F4B-9128-E98394F946DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="740" windowWidth="19140" windowHeight="18340" xr2:uid="{67E42327-B056-9045-9E14-E001F4605164}"/>
+    <workbookView xWindow="15200" yWindow="740" windowWidth="14200" windowHeight="18340" xr2:uid="{67E42327-B056-9045-9E14-E001F4605164}"/>
   </bookViews>
   <sheets>
     <sheet name="D_values" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="11">
   <si>
-    <t>Listeria monocytogenes</t>
-  </si>
-  <si>
     <t>MA</t>
   </si>
   <si>
     <t>CA</t>
-  </si>
-  <si>
-    <t>E. coli O157:H7</t>
   </si>
   <si>
     <t>AA</t>
@@ -69,6 +63,12 @@
   </si>
   <si>
     <t>Response</t>
+  </si>
+  <si>
+    <t>L.mono</t>
+  </si>
+  <si>
+    <t>E.coli</t>
   </si>
 </sst>
 </file>
@@ -118,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -128,9 +128,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,7 +466,7 @@
   <dimension ref="A1:F253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A92" sqref="A92:A235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,27 +477,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>500</v>
@@ -509,7 +506,7 @@
         <v>3.5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -520,7 +517,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2">
         <v>500</v>
@@ -529,7 +526,7 @@
         <v>3.5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -540,7 +537,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>500</v>
@@ -549,7 +546,7 @@
         <v>3.5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -560,7 +557,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>500</v>
@@ -569,7 +566,7 @@
         <v>3.5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -580,7 +577,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>500</v>
@@ -589,7 +586,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -600,7 +597,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>500</v>
@@ -609,7 +606,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -620,7 +617,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>500</v>
@@ -629,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
         <v>3</v>
@@ -640,7 +637,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>500</v>
@@ -649,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
         <v>4</v>
@@ -660,7 +657,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>500</v>
@@ -669,7 +666,7 @@
         <v>4.5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -680,7 +677,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>500</v>
@@ -689,7 +686,7 @@
         <v>4.5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -700,7 +697,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2">
         <v>500</v>
@@ -709,7 +706,7 @@
         <v>4.5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
         <v>3</v>
@@ -720,7 +717,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2">
         <v>500</v>
@@ -729,7 +726,7 @@
         <v>4.5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
         <v>4</v>
@@ -740,7 +737,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2">
         <v>600</v>
@@ -749,7 +746,7 @@
         <v>3.5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -760,7 +757,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2">
         <v>600</v>
@@ -769,7 +766,7 @@
         <v>3.5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
@@ -780,7 +777,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B16" s="2">
         <v>600</v>
@@ -789,7 +786,7 @@
         <v>3.5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2">
         <v>3</v>
@@ -800,7 +797,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2">
         <v>600</v>
@@ -809,7 +806,7 @@
         <v>3.5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2">
         <v>4</v>
@@ -820,7 +817,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2">
         <v>600</v>
@@ -829,7 +826,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -840,7 +837,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B19" s="2">
         <v>600</v>
@@ -849,7 +846,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
@@ -860,7 +857,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2">
         <v>600</v>
@@ -869,7 +866,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2">
         <v>3</v>
@@ -880,7 +877,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2">
         <v>600</v>
@@ -889,7 +886,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2">
         <v>4</v>
@@ -900,7 +897,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2">
         <v>600</v>
@@ -909,7 +906,7 @@
         <v>4.5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -920,7 +917,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2">
         <v>600</v>
@@ -929,7 +926,7 @@
         <v>4.5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -940,7 +937,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2">
         <v>600</v>
@@ -949,7 +946,7 @@
         <v>4.5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2">
         <v>3</v>
@@ -960,7 +957,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2">
         <v>600</v>
@@ -969,7 +966,7 @@
         <v>4.5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2">
         <v>4</v>
@@ -980,7 +977,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B26" s="2">
         <v>700</v>
@@ -989,7 +986,7 @@
         <v>3.5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -1000,7 +997,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2">
         <v>700</v>
@@ -1009,7 +1006,7 @@
         <v>3.5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
@@ -1020,7 +1017,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B28" s="2">
         <v>700</v>
@@ -1029,7 +1026,7 @@
         <v>3.5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2">
         <v>3</v>
@@ -1040,7 +1037,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2">
         <v>700</v>
@@ -1049,7 +1046,7 @@
         <v>3.5</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2">
         <v>4</v>
@@ -1060,7 +1057,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B30" s="2">
         <v>700</v>
@@ -1069,7 +1066,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -1080,7 +1077,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B31" s="2">
         <v>700</v>
@@ -1089,7 +1086,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
@@ -1100,7 +1097,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B32" s="2">
         <v>700</v>
@@ -1109,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2">
         <v>3</v>
@@ -1120,7 +1117,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B33" s="2">
         <v>700</v>
@@ -1129,7 +1126,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2">
         <v>4</v>
@@ -1140,7 +1137,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B34" s="2">
         <v>700</v>
@@ -1149,7 +1146,7 @@
         <v>4.5</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -1160,7 +1157,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B35" s="2">
         <v>700</v>
@@ -1169,7 +1166,7 @@
         <v>4.5</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2">
         <v>2</v>
@@ -1180,7 +1177,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B36" s="2">
         <v>700</v>
@@ -1189,7 +1186,7 @@
         <v>4.5</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2">
         <v>3</v>
@@ -1200,7 +1197,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B37" s="2">
         <v>700</v>
@@ -1209,7 +1206,7 @@
         <v>4.5</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="2">
         <v>4</v>
@@ -1220,7 +1217,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B38" s="2">
         <v>500</v>
@@ -1229,7 +1226,7 @@
         <v>3.5</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
@@ -1240,7 +1237,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B39" s="2">
         <v>500</v>
@@ -1249,7 +1246,7 @@
         <v>3.5</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="2">
         <v>2</v>
@@ -1260,7 +1257,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B40" s="2">
         <v>500</v>
@@ -1269,7 +1266,7 @@
         <v>3.5</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" s="2">
         <v>3</v>
@@ -1280,7 +1277,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B41" s="2">
         <v>500</v>
@@ -1289,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
@@ -1300,7 +1297,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B42" s="2">
         <v>500</v>
@@ -1309,7 +1306,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="2">
         <v>2</v>
@@ -1320,7 +1317,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B43" s="2">
         <v>500</v>
@@ -1329,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="2">
         <v>3</v>
@@ -1340,7 +1337,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B44" s="2">
         <v>500</v>
@@ -1349,7 +1346,7 @@
         <v>4.5</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
@@ -1360,7 +1357,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B45" s="2">
         <v>500</v>
@@ -1369,7 +1366,7 @@
         <v>4.5</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" s="2">
         <v>2</v>
@@ -1380,7 +1377,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B46" s="2">
         <v>500</v>
@@ -1389,7 +1386,7 @@
         <v>4.5</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" s="2">
         <v>3</v>
@@ -1400,7 +1397,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B47" s="2">
         <v>600</v>
@@ -1409,7 +1406,7 @@
         <v>3.5</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
@@ -1420,7 +1417,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B48" s="2">
         <v>600</v>
@@ -1429,7 +1426,7 @@
         <v>3.5</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" s="2">
         <v>2</v>
@@ -1440,7 +1437,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B49" s="2">
         <v>600</v>
@@ -1449,7 +1446,7 @@
         <v>3.5</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="2">
         <v>3</v>
@@ -1460,7 +1457,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B50" s="2">
         <v>600</v>
@@ -1469,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" s="2">
         <v>1</v>
@@ -1480,7 +1477,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B51" s="2">
         <v>600</v>
@@ -1489,7 +1486,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" s="2">
         <v>2</v>
@@ -1500,7 +1497,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B52" s="2">
         <v>600</v>
@@ -1509,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" s="2">
         <v>3</v>
@@ -1520,7 +1517,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B53" s="2">
         <v>600</v>
@@ -1529,7 +1526,7 @@
         <v>4.5</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" s="2">
         <v>1</v>
@@ -1540,7 +1537,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B54" s="2">
         <v>600</v>
@@ -1549,7 +1546,7 @@
         <v>4.5</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" s="2">
         <v>2</v>
@@ -1560,7 +1557,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B55" s="2">
         <v>600</v>
@@ -1569,7 +1566,7 @@
         <v>4.5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" s="2">
         <v>3</v>
@@ -1580,7 +1577,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B56" s="2">
         <v>700</v>
@@ -1589,7 +1586,7 @@
         <v>3.5</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
@@ -1600,7 +1597,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B57" s="2">
         <v>700</v>
@@ -1609,7 +1606,7 @@
         <v>3.5</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" s="2">
         <v>2</v>
@@ -1620,7 +1617,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B58" s="2">
         <v>700</v>
@@ -1629,7 +1626,7 @@
         <v>3.5</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" s="2">
         <v>3</v>
@@ -1640,7 +1637,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B59" s="2">
         <v>700</v>
@@ -1649,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
@@ -1660,7 +1657,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B60" s="2">
         <v>700</v>
@@ -1669,7 +1666,7 @@
         <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" s="2">
         <v>2</v>
@@ -1680,7 +1677,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B61" s="2">
         <v>700</v>
@@ -1689,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" s="2">
         <v>3</v>
@@ -1700,7 +1697,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B62" s="2">
         <v>700</v>
@@ -1709,7 +1706,7 @@
         <v>4.5</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" s="2">
         <v>1</v>
@@ -1720,7 +1717,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B63" s="2">
         <v>700</v>
@@ -1729,7 +1726,7 @@
         <v>4.5</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" s="2">
         <v>2</v>
@@ -1740,7 +1737,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B64" s="2">
         <v>700</v>
@@ -1749,7 +1746,7 @@
         <v>4.5</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" s="2">
         <v>3</v>
@@ -1759,8 +1756,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>0</v>
+      <c r="A65" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B65" s="2">
         <v>500</v>
@@ -1769,7 +1766,7 @@
         <v>3.5</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E65" s="2">
         <v>1</v>
@@ -1779,8 +1776,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>0</v>
+      <c r="A66" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B66" s="2">
         <v>500</v>
@@ -1789,7 +1786,7 @@
         <v>3.5</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E66" s="2">
         <v>2</v>
@@ -1799,8 +1796,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>0</v>
+      <c r="A67" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B67" s="2">
         <v>500</v>
@@ -1809,7 +1806,7 @@
         <v>3.5</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E67" s="2">
         <v>3</v>
@@ -1819,8 +1816,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>0</v>
+      <c r="A68" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B68" s="2">
         <v>500</v>
@@ -1829,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
@@ -1839,8 +1836,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>0</v>
+      <c r="A69" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B69" s="2">
         <v>500</v>
@@ -1849,7 +1846,7 @@
         <v>4</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E69" s="2">
         <v>2</v>
@@ -1859,8 +1856,8 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>0</v>
+      <c r="A70" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B70" s="2">
         <v>500</v>
@@ -1869,7 +1866,7 @@
         <v>4</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E70" s="2">
         <v>3</v>
@@ -1879,8 +1876,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>0</v>
+      <c r="A71" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B71" s="2">
         <v>500</v>
@@ -1889,7 +1886,7 @@
         <v>4.5</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E71" s="2">
         <v>1</v>
@@ -1899,8 +1896,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>0</v>
+      <c r="A72" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B72" s="2">
         <v>500</v>
@@ -1909,7 +1906,7 @@
         <v>4.5</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E72" s="2">
         <v>2</v>
@@ -1919,8 +1916,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>0</v>
+      <c r="A73" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B73" s="2">
         <v>500</v>
@@ -1929,7 +1926,7 @@
         <v>4.5</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E73" s="2">
         <v>3</v>
@@ -1939,8 +1936,8 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>0</v>
+      <c r="A74" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B74" s="2">
         <v>600</v>
@@ -1949,7 +1946,7 @@
         <v>3.5</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E74" s="2">
         <v>1</v>
@@ -1959,8 +1956,8 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>0</v>
+      <c r="A75" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B75" s="2">
         <v>600</v>
@@ -1969,7 +1966,7 @@
         <v>3.5</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E75" s="2">
         <v>2</v>
@@ -1979,8 +1976,8 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>0</v>
+      <c r="A76" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B76" s="2">
         <v>600</v>
@@ -1989,7 +1986,7 @@
         <v>3.5</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E76" s="2">
         <v>3</v>
@@ -1999,8 +1996,8 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>0</v>
+      <c r="A77" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B77" s="2">
         <v>600</v>
@@ -2009,7 +2006,7 @@
         <v>4</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E77" s="2">
         <v>1</v>
@@ -2019,8 +2016,8 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>0</v>
+      <c r="A78" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B78" s="2">
         <v>600</v>
@@ -2029,7 +2026,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E78" s="2">
         <v>2</v>
@@ -2039,8 +2036,8 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>0</v>
+      <c r="A79" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B79" s="2">
         <v>600</v>
@@ -2049,7 +2046,7 @@
         <v>4</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E79" s="2">
         <v>3</v>
@@ -2059,8 +2056,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>0</v>
+      <c r="A80" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B80" s="2">
         <v>600</v>
@@ -2069,7 +2066,7 @@
         <v>4.5</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E80" s="2">
         <v>1</v>
@@ -2079,8 +2076,8 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>0</v>
+      <c r="A81" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B81" s="2">
         <v>600</v>
@@ -2089,7 +2086,7 @@
         <v>4.5</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E81" s="2">
         <v>2</v>
@@ -2099,8 +2096,8 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>0</v>
+      <c r="A82" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B82" s="2">
         <v>600</v>
@@ -2109,7 +2106,7 @@
         <v>4.5</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E82" s="2">
         <v>3</v>
@@ -2119,8 +2116,8 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>0</v>
+      <c r="A83" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B83" s="2">
         <v>700</v>
@@ -2129,7 +2126,7 @@
         <v>3.5</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E83" s="2">
         <v>1</v>
@@ -2139,8 +2136,8 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
-        <v>0</v>
+      <c r="A84" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B84" s="2">
         <v>700</v>
@@ -2149,7 +2146,7 @@
         <v>3.5</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E84" s="2">
         <v>2</v>
@@ -2159,8 +2156,8 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>0</v>
+      <c r="A85" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B85" s="2">
         <v>700</v>
@@ -2169,7 +2166,7 @@
         <v>3.5</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E85" s="2">
         <v>3</v>
@@ -2179,8 +2176,8 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>0</v>
+      <c r="A86" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B86" s="2">
         <v>700</v>
@@ -2189,7 +2186,7 @@
         <v>4</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E86" s="2">
         <v>1</v>
@@ -2199,8 +2196,8 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>0</v>
+      <c r="A87" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B87" s="2">
         <v>700</v>
@@ -2209,7 +2206,7 @@
         <v>4</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E87" s="2">
         <v>2</v>
@@ -2219,8 +2216,8 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>0</v>
+      <c r="A88" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B88" s="2">
         <v>700</v>
@@ -2229,7 +2226,7 @@
         <v>4</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E88" s="2">
         <v>3</v>
@@ -2239,8 +2236,8 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>0</v>
+      <c r="A89" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B89" s="2">
         <v>700</v>
@@ -2249,7 +2246,7 @@
         <v>4.5</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E89" s="2">
         <v>1</v>
@@ -2259,8 +2256,8 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>0</v>
+      <c r="A90" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B90" s="2">
         <v>700</v>
@@ -2269,7 +2266,7 @@
         <v>4.5</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E90" s="2">
         <v>2</v>
@@ -2279,8 +2276,8 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
-        <v>0</v>
+      <c r="A91" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B91" s="2">
         <v>700</v>
@@ -2289,7 +2286,7 @@
         <v>4.5</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E91" s="2">
         <v>3</v>
@@ -2300,7 +2297,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B92" s="2">
         <v>500</v>
@@ -2309,7 +2306,7 @@
         <v>3.5</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" s="2">
         <v>1</v>
@@ -2320,7 +2317,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B93" s="2">
         <v>500</v>
@@ -2329,7 +2326,7 @@
         <v>3.5</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" s="2">
         <v>2</v>
@@ -2340,7 +2337,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B94" s="2">
         <v>500</v>
@@ -2349,7 +2346,7 @@
         <v>3.5</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" s="2">
         <v>3</v>
@@ -2360,7 +2357,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B95" s="2">
         <v>500</v>
@@ -2369,7 +2366,7 @@
         <v>4</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" s="2">
         <v>1</v>
@@ -2380,7 +2377,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B96" s="2">
         <v>500</v>
@@ -2389,7 +2386,7 @@
         <v>4</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" s="2">
         <v>2</v>
@@ -2400,7 +2397,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B97" s="2">
         <v>500</v>
@@ -2409,7 +2406,7 @@
         <v>4</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" s="2">
         <v>3</v>
@@ -2420,7 +2417,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B98" s="2">
         <v>500</v>
@@ -2429,7 +2426,7 @@
         <v>4.5</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" s="2">
         <v>1</v>
@@ -2440,7 +2437,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B99" s="2">
         <v>500</v>
@@ -2449,7 +2446,7 @@
         <v>4.5</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" s="2">
         <v>2</v>
@@ -2460,7 +2457,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B100" s="2">
         <v>500</v>
@@ -2469,7 +2466,7 @@
         <v>4.5</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" s="2">
         <v>3</v>
@@ -2480,7 +2477,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B101" s="2">
         <v>500</v>
@@ -2489,7 +2486,7 @@
         <v>3.5</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" s="2">
         <v>1</v>
@@ -2500,7 +2497,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B102" s="2">
         <v>600</v>
@@ -2509,7 +2506,7 @@
         <v>3.5</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" s="2">
         <v>2</v>
@@ -2520,7 +2517,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B103" s="2">
         <v>600</v>
@@ -2529,7 +2526,7 @@
         <v>3.5</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" s="2">
         <v>3</v>
@@ -2540,7 +2537,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B104" s="2">
         <v>600</v>
@@ -2549,7 +2546,7 @@
         <v>4</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" s="2">
         <v>1</v>
@@ -2560,7 +2557,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B105" s="2">
         <v>600</v>
@@ -2569,7 +2566,7 @@
         <v>4</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" s="2">
         <v>2</v>
@@ -2580,7 +2577,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B106" s="2">
         <v>600</v>
@@ -2589,7 +2586,7 @@
         <v>4</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" s="2">
         <v>3</v>
@@ -2600,7 +2597,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B107" s="2">
         <v>600</v>
@@ -2609,7 +2606,7 @@
         <v>4.5</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" s="2">
         <v>1</v>
@@ -2620,7 +2617,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B108" s="2">
         <v>600</v>
@@ -2629,7 +2626,7 @@
         <v>4.5</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" s="2">
         <v>2</v>
@@ -2640,7 +2637,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B109" s="2">
         <v>600</v>
@@ -2649,7 +2646,7 @@
         <v>4.5</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" s="2">
         <v>3</v>
@@ -2660,7 +2657,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B110" s="2">
         <v>700</v>
@@ -2669,7 +2666,7 @@
         <v>3.5</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110" s="2">
         <v>1</v>
@@ -2680,7 +2677,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B111" s="2">
         <v>700</v>
@@ -2689,7 +2686,7 @@
         <v>3.5</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111" s="2">
         <v>2</v>
@@ -2700,7 +2697,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B112" s="2">
         <v>700</v>
@@ -2709,7 +2706,7 @@
         <v>3.5</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112" s="2">
         <v>3</v>
@@ -2720,7 +2717,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B113" s="2">
         <v>700</v>
@@ -2729,7 +2726,7 @@
         <v>4</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" s="2">
         <v>1</v>
@@ -2740,7 +2737,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B114" s="2">
         <v>700</v>
@@ -2749,7 +2746,7 @@
         <v>4</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114" s="2">
         <v>2</v>
@@ -2760,7 +2757,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B115" s="2">
         <v>700</v>
@@ -2769,7 +2766,7 @@
         <v>4</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" s="2">
         <v>3</v>
@@ -2780,7 +2777,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B116" s="2">
         <v>700</v>
@@ -2789,7 +2786,7 @@
         <v>4.5</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" s="2">
         <v>1</v>
@@ -2800,7 +2797,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B117" s="2">
         <v>700</v>
@@ -2809,7 +2806,7 @@
         <v>4.5</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" s="2">
         <v>2</v>
@@ -2820,7 +2817,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B118" s="2">
         <v>700</v>
@@ -2829,7 +2826,7 @@
         <v>4.5</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" s="2">
         <v>3</v>
@@ -2840,7 +2837,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B119" s="2">
         <v>500</v>
@@ -2849,7 +2846,7 @@
         <v>3.5</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E119" s="2">
         <v>1</v>
@@ -2860,7 +2857,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B120" s="2">
         <v>500</v>
@@ -2869,7 +2866,7 @@
         <v>3.5</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E120" s="2">
         <v>2</v>
@@ -2880,7 +2877,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B121" s="2">
         <v>500</v>
@@ -2889,7 +2886,7 @@
         <v>3.5</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121" s="2">
         <v>3</v>
@@ -2900,7 +2897,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B122" s="2">
         <v>500</v>
@@ -2909,7 +2906,7 @@
         <v>4</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E122" s="2">
         <v>1</v>
@@ -2920,7 +2917,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B123" s="2">
         <v>500</v>
@@ -2929,7 +2926,7 @@
         <v>4</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E123" s="2">
         <v>2</v>
@@ -2940,7 +2937,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B124" s="2">
         <v>500</v>
@@ -2949,7 +2946,7 @@
         <v>4</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124" s="2">
         <v>3</v>
@@ -2960,7 +2957,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B125" s="2">
         <v>500</v>
@@ -2969,7 +2966,7 @@
         <v>4.5</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125" s="2">
         <v>1</v>
@@ -2980,7 +2977,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B126" s="2">
         <v>500</v>
@@ -2989,7 +2986,7 @@
         <v>4.5</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E126" s="2">
         <v>2</v>
@@ -3000,7 +2997,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B127" s="2">
         <v>500</v>
@@ -3009,7 +3006,7 @@
         <v>4.5</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E127" s="2">
         <v>3</v>
@@ -3020,7 +3017,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B128" s="2">
         <v>500</v>
@@ -3029,7 +3026,7 @@
         <v>3.5</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E128" s="2">
         <v>1</v>
@@ -3040,7 +3037,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B129" s="2">
         <v>600</v>
@@ -3049,7 +3046,7 @@
         <v>3.5</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E129" s="2">
         <v>2</v>
@@ -3060,7 +3057,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B130" s="2">
         <v>600</v>
@@ -3069,7 +3066,7 @@
         <v>3.5</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130" s="2">
         <v>3</v>
@@ -3080,7 +3077,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B131" s="2">
         <v>600</v>
@@ -3089,7 +3086,7 @@
         <v>4</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E131" s="2">
         <v>1</v>
@@ -3100,7 +3097,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B132" s="2">
         <v>600</v>
@@ -3109,7 +3106,7 @@
         <v>4</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E132" s="2">
         <v>2</v>
@@ -3120,7 +3117,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B133" s="2">
         <v>600</v>
@@ -3129,7 +3126,7 @@
         <v>4</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E133" s="2">
         <v>3</v>
@@ -3140,7 +3137,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B134" s="2">
         <v>600</v>
@@ -3149,7 +3146,7 @@
         <v>4.5</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E134" s="2">
         <v>1</v>
@@ -3160,7 +3157,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B135" s="2">
         <v>600</v>
@@ -3169,7 +3166,7 @@
         <v>4.5</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E135" s="2">
         <v>2</v>
@@ -3180,7 +3177,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B136" s="2">
         <v>600</v>
@@ -3189,7 +3186,7 @@
         <v>4.5</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E136" s="2">
         <v>3</v>
@@ -3200,7 +3197,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B137" s="2">
         <v>700</v>
@@ -3209,7 +3206,7 @@
         <v>3.5</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E137" s="2">
         <v>1</v>
@@ -3220,7 +3217,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B138" s="2">
         <v>700</v>
@@ -3229,7 +3226,7 @@
         <v>3.5</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E138" s="2">
         <v>2</v>
@@ -3240,7 +3237,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B139" s="2">
         <v>700</v>
@@ -3249,7 +3246,7 @@
         <v>3.5</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139" s="2">
         <v>3</v>
@@ -3260,7 +3257,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B140" s="2">
         <v>700</v>
@@ -3269,7 +3266,7 @@
         <v>4</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E140" s="2">
         <v>1</v>
@@ -3280,7 +3277,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B141" s="2">
         <v>700</v>
@@ -3289,7 +3286,7 @@
         <v>4</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E141" s="2">
         <v>2</v>
@@ -3300,7 +3297,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B142" s="2">
         <v>700</v>
@@ -3309,7 +3306,7 @@
         <v>4</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142" s="2">
         <v>3</v>
@@ -3320,7 +3317,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B143" s="2">
         <v>700</v>
@@ -3329,7 +3326,7 @@
         <v>4.5</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E143" s="2">
         <v>1</v>
@@ -3340,7 +3337,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B144" s="2">
         <v>700</v>
@@ -3349,7 +3346,7 @@
         <v>4.5</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E144" s="2">
         <v>2</v>
@@ -3360,7 +3357,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B145" s="2">
         <v>700</v>
@@ -3369,7 +3366,7 @@
         <v>4.5</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E145" s="2">
         <v>3</v>
@@ -3380,7 +3377,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B146" s="2">
         <v>500</v>
@@ -3389,7 +3386,7 @@
         <v>3.5</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E146" s="2">
         <v>1</v>
@@ -3400,7 +3397,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B147" s="2">
         <v>500</v>
@@ -3409,7 +3406,7 @@
         <v>3.5</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E147" s="2">
         <v>1</v>
@@ -3420,7 +3417,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B148" s="2">
         <v>500</v>
@@ -3429,7 +3426,7 @@
         <v>3.5</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E148" s="2">
         <v>1</v>
@@ -3440,7 +3437,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B149" s="2">
         <v>500</v>
@@ -3449,7 +3446,7 @@
         <v>3.5</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E149" s="2">
         <v>1</v>
@@ -3460,7 +3457,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B150" s="2">
         <v>600</v>
@@ -3469,7 +3466,7 @@
         <v>3.5</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E150" s="2">
         <v>1</v>
@@ -3480,7 +3477,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B151" s="2">
         <v>600</v>
@@ -3489,7 +3486,7 @@
         <v>3.5</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E151" s="2">
         <v>1</v>
@@ -3500,7 +3497,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B152" s="2">
         <v>600</v>
@@ -3509,7 +3506,7 @@
         <v>3.5</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E152" s="2">
         <v>1</v>
@@ -3520,7 +3517,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B153" s="2">
         <v>600</v>
@@ -3529,7 +3526,7 @@
         <v>3.5</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E153" s="2">
         <v>1</v>
@@ -3540,7 +3537,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B154" s="2">
         <v>700</v>
@@ -3549,7 +3546,7 @@
         <v>3.5</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E154" s="2">
         <v>1</v>
@@ -3560,7 +3557,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B155" s="2">
         <v>700</v>
@@ -3569,7 +3566,7 @@
         <v>3.5</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E155" s="2">
         <v>1</v>
@@ -3580,7 +3577,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B156" s="2">
         <v>500</v>
@@ -3589,7 +3586,7 @@
         <v>4</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E156" s="2">
         <v>1</v>
@@ -3600,7 +3597,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B157" s="2">
         <v>500</v>
@@ -3609,7 +3606,7 @@
         <v>4</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E157" s="2">
         <v>1</v>
@@ -3620,7 +3617,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B158" s="2">
         <v>500</v>
@@ -3629,7 +3626,7 @@
         <v>4</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E158" s="2">
         <v>1</v>
@@ -3640,7 +3637,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B159" s="2">
         <v>500</v>
@@ -3649,7 +3646,7 @@
         <v>4</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E159" s="2">
         <v>1</v>
@@ -3660,7 +3657,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B160" s="2">
         <v>600</v>
@@ -3669,7 +3666,7 @@
         <v>4</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E160" s="2">
         <v>1</v>
@@ -3680,7 +3677,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B161" s="2">
         <v>600</v>
@@ -3689,7 +3686,7 @@
         <v>4</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E161" s="2">
         <v>1</v>
@@ -3700,7 +3697,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B162" s="2">
         <v>600</v>
@@ -3709,7 +3706,7 @@
         <v>4</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E162" s="2">
         <v>1</v>
@@ -3720,7 +3717,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B163" s="2">
         <v>600</v>
@@ -3729,7 +3726,7 @@
         <v>4</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E163" s="2">
         <v>1</v>
@@ -3740,7 +3737,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B164" s="2">
         <v>700</v>
@@ -3749,7 +3746,7 @@
         <v>4</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E164" s="2">
         <v>1</v>
@@ -3760,7 +3757,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B165" s="2">
         <v>700</v>
@@ -3769,7 +3766,7 @@
         <v>4</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E165" s="2">
         <v>1</v>
@@ -3780,7 +3777,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B166" s="2">
         <v>500</v>
@@ -3789,7 +3786,7 @@
         <v>4.5</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E166" s="2">
         <v>1</v>
@@ -3800,7 +3797,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B167" s="2">
         <v>500</v>
@@ -3809,7 +3806,7 @@
         <v>4.5</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E167" s="2">
         <v>1</v>
@@ -3820,7 +3817,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B168" s="2">
         <v>500</v>
@@ -3829,7 +3826,7 @@
         <v>4.5</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E168" s="2">
         <v>1</v>
@@ -3840,7 +3837,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B169" s="2">
         <v>500</v>
@@ -3849,7 +3846,7 @@
         <v>4.5</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E169" s="2">
         <v>1</v>
@@ -3860,7 +3857,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B170" s="2">
         <v>600</v>
@@ -3869,7 +3866,7 @@
         <v>4.5</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E170" s="2">
         <v>1</v>
@@ -3880,7 +3877,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B171" s="2">
         <v>600</v>
@@ -3889,7 +3886,7 @@
         <v>4.5</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E171" s="2">
         <v>1</v>
@@ -3900,7 +3897,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B172" s="2">
         <v>600</v>
@@ -3909,7 +3906,7 @@
         <v>4.5</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E172" s="2">
         <v>1</v>
@@ -3920,7 +3917,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B173" s="2">
         <v>600</v>
@@ -3929,7 +3926,7 @@
         <v>4.5</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E173" s="2">
         <v>1</v>
@@ -3940,7 +3937,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B174" s="2">
         <v>700</v>
@@ -3949,7 +3946,7 @@
         <v>4.5</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E174" s="2">
         <v>1</v>
@@ -3960,7 +3957,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B175" s="2">
         <v>700</v>
@@ -3969,7 +3966,7 @@
         <v>4.5</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E175" s="2">
         <v>1</v>
@@ -3980,7 +3977,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B176" s="2">
         <v>500</v>
@@ -3989,7 +3986,7 @@
         <v>3.5</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E176" s="2">
         <v>2</v>
@@ -4000,7 +3997,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B177" s="2">
         <v>500</v>
@@ -4009,7 +4006,7 @@
         <v>3.5</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E177" s="2">
         <v>2</v>
@@ -4020,7 +4017,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B178" s="2">
         <v>500</v>
@@ -4029,7 +4026,7 @@
         <v>3.5</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E178" s="2">
         <v>2</v>
@@ -4040,7 +4037,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B179" s="2">
         <v>500</v>
@@ -4049,7 +4046,7 @@
         <v>3.5</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E179" s="2">
         <v>2</v>
@@ -4060,7 +4057,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B180" s="2">
         <v>600</v>
@@ -4069,7 +4066,7 @@
         <v>3.5</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E180" s="2">
         <v>2</v>
@@ -4080,7 +4077,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B181" s="2">
         <v>600</v>
@@ -4089,7 +4086,7 @@
         <v>3.5</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E181" s="2">
         <v>2</v>
@@ -4100,7 +4097,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B182" s="2">
         <v>600</v>
@@ -4109,7 +4106,7 @@
         <v>3.5</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E182" s="2">
         <v>2</v>
@@ -4120,7 +4117,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B183" s="2">
         <v>600</v>
@@ -4129,7 +4126,7 @@
         <v>3.5</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E183" s="2">
         <v>2</v>
@@ -4140,7 +4137,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B184" s="2">
         <v>700</v>
@@ -4149,7 +4146,7 @@
         <v>3.5</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E184" s="2">
         <v>2</v>
@@ -4160,7 +4157,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B185" s="2">
         <v>700</v>
@@ -4169,7 +4166,7 @@
         <v>3.5</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E185" s="2">
         <v>2</v>
@@ -4180,7 +4177,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B186" s="2">
         <v>500</v>
@@ -4189,7 +4186,7 @@
         <v>4</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E186" s="2">
         <v>2</v>
@@ -4200,7 +4197,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B187" s="2">
         <v>500</v>
@@ -4209,7 +4206,7 @@
         <v>4</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E187" s="2">
         <v>2</v>
@@ -4220,7 +4217,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B188" s="2">
         <v>500</v>
@@ -4229,7 +4226,7 @@
         <v>4</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E188" s="2">
         <v>2</v>
@@ -4240,7 +4237,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B189" s="2">
         <v>500</v>
@@ -4249,7 +4246,7 @@
         <v>4</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E189" s="2">
         <v>2</v>
@@ -4260,7 +4257,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B190" s="2">
         <v>600</v>
@@ -4269,7 +4266,7 @@
         <v>4</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E190" s="2">
         <v>2</v>
@@ -4280,7 +4277,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B191" s="2">
         <v>600</v>
@@ -4289,7 +4286,7 @@
         <v>4</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E191" s="2">
         <v>2</v>
@@ -4300,7 +4297,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B192" s="2">
         <v>600</v>
@@ -4309,7 +4306,7 @@
         <v>4</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E192" s="2">
         <v>2</v>
@@ -4320,7 +4317,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B193" s="2">
         <v>600</v>
@@ -4329,7 +4326,7 @@
         <v>4</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E193" s="2">
         <v>2</v>
@@ -4340,7 +4337,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B194" s="2">
         <v>700</v>
@@ -4349,7 +4346,7 @@
         <v>4</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E194" s="2">
         <v>2</v>
@@ -4360,7 +4357,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B195" s="2">
         <v>700</v>
@@ -4369,7 +4366,7 @@
         <v>4</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E195" s="2">
         <v>2</v>
@@ -4380,7 +4377,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B196" s="2">
         <v>500</v>
@@ -4389,7 +4386,7 @@
         <v>4.5</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E196" s="2">
         <v>2</v>
@@ -4400,7 +4397,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B197" s="2">
         <v>500</v>
@@ -4409,7 +4406,7 @@
         <v>4.5</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E197" s="2">
         <v>2</v>
@@ -4420,7 +4417,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B198" s="2">
         <v>500</v>
@@ -4429,7 +4426,7 @@
         <v>4.5</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E198" s="2">
         <v>2</v>
@@ -4440,7 +4437,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B199" s="2">
         <v>500</v>
@@ -4449,7 +4446,7 @@
         <v>4.5</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E199" s="2">
         <v>2</v>
@@ -4460,7 +4457,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B200" s="2">
         <v>600</v>
@@ -4469,7 +4466,7 @@
         <v>4.5</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E200" s="2">
         <v>2</v>
@@ -4480,7 +4477,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B201" s="2">
         <v>600</v>
@@ -4489,7 +4486,7 @@
         <v>4.5</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E201" s="2">
         <v>2</v>
@@ -4500,7 +4497,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B202" s="2">
         <v>600</v>
@@ -4509,7 +4506,7 @@
         <v>4.5</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E202" s="2">
         <v>2</v>
@@ -4520,7 +4517,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B203" s="2">
         <v>600</v>
@@ -4529,18 +4526,19 @@
         <v>4.5</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E203" s="2">
         <v>2</v>
       </c>
-      <c r="F203" t="e">
-        <v>#NUM!</v>
+      <c r="F203">
+        <f>-1/-0.2683</f>
+        <v>3.7271710771524416</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B204" s="2">
         <v>700</v>
@@ -4549,7 +4547,7 @@
         <v>4.5</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E204" s="2">
         <v>2</v>
@@ -4560,7 +4558,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B205" s="2">
         <v>700</v>
@@ -4569,7 +4567,7 @@
         <v>4.5</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E205" s="2">
         <v>2</v>
@@ -4580,7 +4578,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B206" s="2">
         <v>500</v>
@@ -4589,7 +4587,7 @@
         <v>3.5</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E206" s="2">
         <v>3</v>
@@ -4600,7 +4598,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B207" s="2">
         <v>500</v>
@@ -4609,7 +4607,7 @@
         <v>3.5</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E207" s="2">
         <v>3</v>
@@ -4620,7 +4618,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B208" s="2">
         <v>500</v>
@@ -4629,7 +4627,7 @@
         <v>3.5</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E208" s="2">
         <v>3</v>
@@ -4640,7 +4638,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B209" s="2">
         <v>500</v>
@@ -4649,7 +4647,7 @@
         <v>3.5</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E209" s="2">
         <v>3</v>
@@ -4660,7 +4658,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B210" s="2">
         <v>600</v>
@@ -4669,7 +4667,7 @@
         <v>3.5</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E210" s="2">
         <v>3</v>
@@ -4680,7 +4678,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B211" s="2">
         <v>600</v>
@@ -4689,7 +4687,7 @@
         <v>3.5</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E211" s="2">
         <v>3</v>
@@ -4700,7 +4698,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B212" s="2">
         <v>600</v>
@@ -4709,7 +4707,7 @@
         <v>3.5</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E212" s="2">
         <v>3</v>
@@ -4720,7 +4718,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B213" s="2">
         <v>600</v>
@@ -4729,7 +4727,7 @@
         <v>3.5</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E213" s="2">
         <v>3</v>
@@ -4740,7 +4738,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B214" s="2">
         <v>700</v>
@@ -4749,7 +4747,7 @@
         <v>3.5</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E214" s="2">
         <v>3</v>
@@ -4760,7 +4758,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B215" s="2">
         <v>700</v>
@@ -4769,7 +4767,7 @@
         <v>3.5</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E215" s="2">
         <v>3</v>
@@ -4780,7 +4778,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B216" s="2">
         <v>500</v>
@@ -4789,7 +4787,7 @@
         <v>4</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E216" s="2">
         <v>3</v>
@@ -4800,7 +4798,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B217" s="2">
         <v>500</v>
@@ -4809,7 +4807,7 @@
         <v>4</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E217" s="2">
         <v>3</v>
@@ -4820,7 +4818,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B218" s="2">
         <v>500</v>
@@ -4829,7 +4827,7 @@
         <v>4</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E218" s="2">
         <v>3</v>
@@ -4840,7 +4838,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B219" s="2">
         <v>500</v>
@@ -4849,7 +4847,7 @@
         <v>4</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E219" s="2">
         <v>3</v>
@@ -4860,7 +4858,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B220" s="2">
         <v>600</v>
@@ -4869,7 +4867,7 @@
         <v>4</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E220" s="2">
         <v>3</v>
@@ -4880,7 +4878,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B221" s="2">
         <v>600</v>
@@ -4889,7 +4887,7 @@
         <v>4</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E221" s="2">
         <v>3</v>
@@ -4900,7 +4898,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B222" s="2">
         <v>600</v>
@@ -4909,7 +4907,7 @@
         <v>4</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E222" s="2">
         <v>3</v>
@@ -4920,7 +4918,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B223" s="2">
         <v>600</v>
@@ -4929,7 +4927,7 @@
         <v>4</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E223" s="2">
         <v>3</v>
@@ -4940,7 +4938,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B224" s="2">
         <v>700</v>
@@ -4949,7 +4947,7 @@
         <v>4</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E224" s="2">
         <v>3</v>
@@ -4960,7 +4958,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B225" s="2">
         <v>700</v>
@@ -4969,7 +4967,7 @@
         <v>4</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E225" s="2">
         <v>3</v>
@@ -4980,7 +4978,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B226" s="2">
         <v>500</v>
@@ -4989,7 +4987,7 @@
         <v>4.5</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E226" s="2">
         <v>3</v>
@@ -5000,7 +4998,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B227" s="2">
         <v>500</v>
@@ -5009,7 +5007,7 @@
         <v>4.5</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E227" s="2">
         <v>3</v>
@@ -5020,7 +5018,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B228" s="2">
         <v>500</v>
@@ -5029,7 +5027,7 @@
         <v>4.5</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E228" s="2">
         <v>3</v>
@@ -5040,7 +5038,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B229" s="2">
         <v>500</v>
@@ -5049,18 +5047,19 @@
         <v>4.5</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E229" s="2">
         <v>3</v>
       </c>
-      <c r="F229" t="e">
-        <v>#NUM!</v>
+      <c r="F229">
+        <f>-1/-0.2087</f>
+        <v>4.7915668423574509</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B230" s="2">
         <v>600</v>
@@ -5069,7 +5068,7 @@
         <v>4.5</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E230" s="2">
         <v>3</v>
@@ -5080,7 +5079,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B231" s="2">
         <v>600</v>
@@ -5089,7 +5088,7 @@
         <v>4.5</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E231" s="2">
         <v>3</v>
@@ -5100,7 +5099,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B232" s="2">
         <v>600</v>
@@ -5109,7 +5108,7 @@
         <v>4.5</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E232" s="2">
         <v>3</v>
@@ -5120,7 +5119,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B233" s="2">
         <v>600</v>
@@ -5129,7 +5128,7 @@
         <v>4.5</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E233" s="2">
         <v>3</v>
@@ -5140,7 +5139,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B234" s="2">
         <v>700</v>
@@ -5149,7 +5148,7 @@
         <v>4.5</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E234" s="2">
         <v>3</v>
@@ -5160,7 +5159,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B235" s="2">
         <v>700</v>
@@ -5169,7 +5168,7 @@
         <v>4.5</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E235" s="2">
         <v>3</v>
